--- a/docs/experiement analysis.xlsx
+++ b/docs/experiement analysis.xlsx
@@ -12,24 +12,26 @@
     <sheet name="Kmeans迭代次数对相似度对比的影响" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Kmeans迭代次数对相似度对比的影响!$B$3:$B$9</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Kmeans迭代次数对相似度对比的影响!$C$3:$C$9</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Kmeans迭代次数对相似度对比的影响!$C$3:$C$9</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Kmeans迭代次数对相似度对比的影响!$D$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Kmeans迭代次数对相似度对比的影响!$D$3:$D$9</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Kmeans迭代次数对相似度对比的影响!$B$3</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Kmeans迭代次数对相似度对比的影响!$B$3:$B$9</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Kmeans迭代次数对相似度对比的影响!$C$3:$C$9</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Kmeans迭代次数对相似度对比的影响!$D$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Kmeans迭代次数对相似度对比的影响!$D$3:$D$9</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Kmeans迭代次数对相似度对比的影响!$D$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Kmeans迭代次数对相似度对比的影响!$D$3:$D$9</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Kmeans迭代次数对相似度对比的影响!$B$3:$B$9</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Kmeans迭代次数对相似度对比的影响!$C$3:$C$9</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Kmeans迭代次数对相似度对比的影响!$D$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Kmeans迭代次数对相似度对比的影响!$D$3:$D$9</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Kmeans迭代次数对相似度对比的影响!$B$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Kmeans迭代次数对相似度对比的影响!$B$3:$B$9</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Kmeans迭代次数对相似度对比的影响!$B$3</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Kmeans迭代次数对相似度对比的影响!$B$3:$B$9</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Kmeans迭代次数对相似度对比的影响!$B$3</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Kmeans迭代次数对相似度对比的影响!$B$3:$B$9</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Kmeans迭代次数对相似度对比的影响!$C$3:$C$9</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Kmeans迭代次数对相似度对比的影响!$E$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Kmeans迭代次数对相似度对比的影响!$E$3:$E$9</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Kmeans迭代次数对相似度对比的影响!$B$3</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Kmeans迭代次数对相似度对比的影响!$B$3:$B$9</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Kmeans迭代次数对相似度对比的影响!$C$3:$C$9</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Kmeans迭代次数对相似度对比的影响!$E$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Kmeans迭代次数对相似度对比的影响!$E$3:$E$9</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Kmeans迭代次数对相似度对比的影响!$C$3:$C$9</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Kmeans迭代次数对相似度对比的影响!$E$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Kmeans迭代次数对相似度对比的影响!$E$3:$E$9</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Kmeans迭代次数对相似度对比的影响!$B$3</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Kmeans迭代次数对相似度对比的影响!$B$3:$B$9</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Kmeans迭代次数对相似度对比的影响!$C$3:$C$9</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Kmeans迭代次数对相似度对比的影响!$E$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Kmeans迭代次数对相似度对比的影响!$E$3:$E$9</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>ElbowLeft</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,15 +137,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>直接对比的相似度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Motion1 Motion2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Motion1 Motion3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTW结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键帧+DTW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1324,14 +1330,26 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1575,36 +1593,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1612,15 +1600,102 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>关键帧+DTW</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Kmeans迭代次数对相似度对比的影响!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Kmeans迭代次数对相似度对比的影响!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>77.6266405558477</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.020381661541407</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.210806096709305</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.2275467303093</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.198548187074806</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.198548187074806</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80.198548187074806</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3CF4-41C5-BB38-D15D1C1C6D2F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Kmeans迭代次数对相似度对比的影响!$D$1</c:f>
+              <c:f>Kmeans迭代次数对相似度对比的影响!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Motion1 Motion3</c:v>
+                  <c:v>DTW结果</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1630,24 +1705,13 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1686,25 +1750,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>41.458154180115699</c:v>
+                  <c:v>81.713141232487402</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.617660791490501</c:v>
+                  <c:v>81.713141232487402</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38.799805034561402</c:v>
+                  <c:v>81.713141232487402</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.017629712844297</c:v>
+                  <c:v>81.713141232487402</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.486304306421601</c:v>
+                  <c:v>81.713141232487402</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.269762893779003</c:v>
+                  <c:v>81.713141232487402</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.269762893779003</c:v>
+                  <c:v>81.713141232487402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1712,7 +1776,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-13BD-4B0F-ABFA-36BE0E13DCE5}"/>
+              <c16:uniqueId val="{00000002-6872-4A7E-B9C2-701482617F3B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1730,31 +1794,36 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Kmeans迭代次数对相似度对比的影响!$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Motion1 Motion3</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent1"/>
+                      <a:schemeClr val="accent2"/>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
                 <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
+                  <c:symbol val="none"/>
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
@@ -1797,7 +1866,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Kmeans迭代次数对相似度对比的影响!$C$3:$C$9</c15:sqref>
+                          <c15:sqref>Kmeans迭代次数对相似度对比的影响!$E$3:$E$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1805,25 +1874,25 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="7"/>
                       <c:pt idx="0">
-                        <c:v>77.6266405558477</c:v>
+                        <c:v>41.458154180115699</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>79.020381661541407</c:v>
+                        <c:v>39.617660791490501</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>80.210806096709305</c:v>
+                        <c:v>38.799805034561402</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>80.2275467303093</c:v>
+                        <c:v>36.017629712844297</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>80.198548187074806</c:v>
+                        <c:v>35.486304306421601</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>80.198548187074806</c:v>
+                        <c:v>35.269762893779003</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>80.198548187074806</c:v>
+                        <c:v>35.269762893779003</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1831,105 +1900,7 @@
                 <c:smooth val="1"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-13BD-4B0F-ABFA-36BE0E13DCE5}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Kmeans迭代次数对相似度对比的影响!$B$3</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent3"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Kmeans迭代次数对相似度对比的影响!$B$3:$B$9</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="7"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>6</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numLit>
-                    <c:formatCode>General</c:formatCode>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>1</c:v>
-                    </c:pt>
-                  </c:numLit>
-                </c:yVal>
-                <c:smooth val="1"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-13BD-4B0F-ABFA-36BE0E13DCE5}"/>
+                    <c16:uniqueId val="{00000000-3CF4-41C5-BB38-D15D1C1C6D2F}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -1941,6 +1912,7 @@
         <c:axId val="865473600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1958,6 +1930,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>迭代次数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2003,6 +2030,7 @@
         <c:axId val="865473272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="75"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2020,6 +2048,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>相似程度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2069,6 +2152,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2136,6 +2250,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Kmeans迭代次数对相似度对比的影响!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>关键帧+DTW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -2146,19 +2271,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -2193,39 +2306,132 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Kmeans迭代次数对相似度对比的影响!$C$3:$C$9</c:f>
+              <c:f>Kmeans迭代次数对相似度对比的影响!$E$3:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>77.6266405558477</c:v>
+                  <c:v>41.458154180115699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79.020381661541407</c:v>
+                  <c:v>39.617660791490501</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80.210806096709305</c:v>
+                  <c:v>38.799805034561402</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80.2275467303093</c:v>
+                  <c:v>36.017629712844297</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80.198548187074806</c:v>
+                  <c:v>35.486304306421601</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80.198548187074806</c:v>
+                  <c:v>35.269762893779003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80.198548187074806</c:v>
+                  <c:v>35.269762893779003</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3CF4-41C5-BB38-D15D1C1C6D2F}"/>
+              <c16:uniqueId val="{00000000-1CC1-40F7-9BC6-A49380D59FAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Kmeans迭代次数对相似度对比的影响!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DTW结果</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Kmeans迭代次数对相似度对比的影响!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Kmeans迭代次数对相似度对比的影响!$F$3:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>31.854570870178701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.854570870178701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.854570870178701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.854570870178701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.854570870178701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.854570870178701</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.854570870178701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1CC1-40F7-9BC6-A49380D59FAA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2250,7 +2456,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Kmeans迭代次数对相似度对比的影响!$D$1</c15:sqref>
+                          <c15:sqref>Kmeans迭代次数对相似度对比的影响!$E$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2272,19 +2478,7 @@
                   <a:effectLst/>
                 </c:spPr>
                 <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent2"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
+                  <c:symbol val="none"/>
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
@@ -2327,7 +2521,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Kmeans迭代次数对相似度对比的影响!$D$3:$D$9</c15:sqref>
+                          <c15:sqref>Kmeans迭代次数对相似度对比的影响!$E$3:$E$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2361,105 +2555,7 @@
                 <c:smooth val="1"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-3CF4-41C5-BB38-D15D1C1C6D2F}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Kmeans迭代次数对相似度对比的影响!$B$3</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent3"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Kmeans迭代次数对相似度对比的影响!$B$3:$B$9</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="7"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>6</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numLit>
-                    <c:formatCode>General</c:formatCode>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>1</c:v>
-                    </c:pt>
-                  </c:numLit>
-                </c:yVal>
-                <c:smooth val="1"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-3CF4-41C5-BB38-D15D1C1C6D2F}"/>
+                    <c16:uniqueId val="{00000002-1CC1-40F7-9BC6-A49380D59FAA}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -2471,6 +2567,7 @@
         <c:axId val="865473600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2488,6 +2585,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>迭代次数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2533,6 +2685,7 @@
         <c:axId val="865473272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="30"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2550,6 +2703,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>相似程度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2599,6 +2807,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -4315,16 +4554,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>345889</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>121398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:colOff>231589</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>18304</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4358,27 +4597,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
+        <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97F917AE-939E-4D31-88F9-E064C6DF75A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CB4F566-A1AB-43D5-8084-671F2336CA0A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4394,23 +4635,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2">
+        <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CB4F566-A1AB-43D5-8084-671F2336CA0A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A44EEC4E-5F09-45BA-AF9E-239783FB1CE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15121,7 +15362,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -15134,45 +15375,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="3" max="4" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="2"/>
       <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2">
-        <v>81.713141232487402</v>
-      </c>
-      <c r="D2">
-        <v>31.854570870178701</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -15183,10 +15429,17 @@
         <v>77.6266405558477</v>
       </c>
       <c r="D3">
+        <f>81.7131412324874</f>
+        <v>81.713141232487402</v>
+      </c>
+      <c r="E3">
         <v>41.458154180115699</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>31.854570870178701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4">
         <v>1</v>
@@ -15195,10 +15448,17 @@
         <v>79.020381661541407</v>
       </c>
       <c r="D4">
+        <f t="shared" ref="D4:D9" si="0">81.7131412324874</f>
+        <v>81.713141232487402</v>
+      </c>
+      <c r="E4">
         <v>39.617660791490501</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>31.854570870178701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5">
         <v>2</v>
@@ -15207,10 +15467,17 @@
         <v>80.210806096709305</v>
       </c>
       <c r="D5">
+        <f t="shared" si="0"/>
+        <v>81.713141232487402</v>
+      </c>
+      <c r="E5">
         <v>38.799805034561402</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>31.854570870178701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6">
         <v>3</v>
@@ -15219,10 +15486,17 @@
         <v>80.2275467303093</v>
       </c>
       <c r="D6">
+        <f t="shared" si="0"/>
+        <v>81.713141232487402</v>
+      </c>
+      <c r="E6">
         <v>36.017629712844297</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>31.854570870178701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7">
         <v>4</v>
@@ -15231,10 +15505,17 @@
         <v>80.198548187074806</v>
       </c>
       <c r="D7">
+        <f t="shared" si="0"/>
+        <v>81.713141232487402</v>
+      </c>
+      <c r="E7">
         <v>35.486304306421601</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>31.854570870178701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8">
         <v>5</v>
@@ -15243,10 +15524,17 @@
         <v>80.198548187074806</v>
       </c>
       <c r="D8">
+        <f t="shared" si="0"/>
+        <v>81.713141232487402</v>
+      </c>
+      <c r="E8">
         <v>35.269762893779003</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>31.854570870178701</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9">
         <v>6</v>
@@ -15255,26 +15543,34 @@
         <v>80.198548187074806</v>
       </c>
       <c r="D9">
+        <f t="shared" si="0"/>
+        <v>81.713141232487402</v>
+      </c>
+      <c r="E9">
         <v>35.269762893779003</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>31.854570870178701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A1:B2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>